--- a/demo/文档/稳定性测试要点.xlsx
+++ b/demo/文档/稳定性测试要点.xlsx
@@ -12,7 +12,6 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -34,43 +33,46 @@
     <t>&lt;1k</t>
   </si>
   <si>
-    <t>在web应用配置文件test.properties中设置session.test，
+    <t>&lt;10k</t>
+  </si>
+  <si>
+    <t>&lt;100k</t>
+  </si>
+  <si>
+    <t>redis重负载：缓存对象</t>
+  </si>
+  <si>
+    <t>&lt;10M</t>
+  </si>
+  <si>
+    <t>fastdfs重负载：上传下载文件</t>
+  </si>
+  <si>
+    <t>&lt;500M</t>
+  </si>
+  <si>
+    <t>在web应用配置文件session-size.properties中设置session.test，
 0：不向session中放对象；
 1：向session中放对象：&lt;1k;
 2: 向session中放对象：&lt;10k;
 3: 向session中放对象：&lt;100k;
-启动应用后，登录http://localhost:8080/web-test-dubbo，后台会根据配置属性向session中放对象数据</t>
-  </si>
-  <si>
-    <t>&lt;10k</t>
-  </si>
-  <si>
-    <t>&lt;100k</t>
-  </si>
-  <si>
-    <t>redis重负载：缓存对象</t>
-  </si>
-  <si>
-    <t>http://localhost:8080/web-test-dubbo/test/redis?dataFlag=2 成功返回succss,失败返回fail</t>
-  </si>
-  <si>
-    <t>&lt;10M</t>
-  </si>
-  <si>
-    <t>http://localhost:8080/web-test-dubbo/test/redis?dataFlag=3 成功返回succss,失败返回fail</t>
-  </si>
-  <si>
-    <t>fastdfs重负载：上传下载文件</t>
-  </si>
-  <si>
-    <t>&lt;500M</t>
-  </si>
-  <si>
-    <t>url为：http://localhost:8080/web-test-dubbo/test/upload</t>
+启动应用后，登录http://192.168.88.74，后台会根据配置属性向session中放对象数据</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>http://localhost:8080/web-test-dubbo/test/redis?dataFlag=1 成功返回succss,失败返回fail</t>
+    <t>http://192.168.88.74/test/redis?dataFlag=1 成功返回succss,失败返回fail</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.88.74/test/redis?dataFlag=2 成功返回succss,失败返回fail</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.88.74/test/redis?dataFlag=3 成功返回succss,失败返回fail</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.88.74/test/upload</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -78,7 +80,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,23 +99,6 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -143,14 +128,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
@@ -159,10 +141,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -463,7 +442,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -484,96 +463,100 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="81">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="3"/>
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="4"/>
-      <c r="B3" t="s">
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="3"/>
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="4"/>
-      <c r="B4" t="s">
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="4" t="s">
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="3"/>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="3"/>
+      <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C7" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="4"/>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="4"/>
-      <c r="B7" t="s">
+    <row r="9" spans="1:3">
+      <c r="A9" s="3"/>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="4"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="3"/>
+      <c r="B10" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="4"/>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="4"/>
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="1"/>
+      <c r="C10" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="A8:A10"/>
+    <mergeCell ref="C8:C10"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1"/>
+    <hyperlink ref="C6" r:id="rId1"/>
+    <hyperlink ref="C5" r:id="rId2"/>
+    <hyperlink ref="C7" r:id="rId3"/>
+    <hyperlink ref="C8" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
 </worksheet>
 </file>
 
